--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/9.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/9.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1427526528034345</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.584087220469927</v>
+        <v>-1.585444024952489</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1133176857304</v>
+        <v>0.1128848304720423</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09571677563569525</v>
+        <v>-0.09534058506570439</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1407636847976507</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.598851519827728</v>
+        <v>-1.60059710703325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1379794173229392</v>
+        <v>0.1369956553721262</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09350370475114649</v>
+        <v>-0.09297955638375335</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1505804466742016</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.740754065670349</v>
+        <v>-1.742328084791649</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1129824196575629</v>
+        <v>0.1116507994809426</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09007863914319618</v>
+        <v>-0.0894269952269777</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1714759517933441</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.900321041101767</v>
+        <v>-1.90103958083064</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1919619771070676</v>
+        <v>0.1895915043103887</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1055701353350375</v>
+        <v>-0.1047878478317511</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.198238630259102</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.87529885913045</v>
+        <v>-1.875690789891653</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2677667379889087</v>
+        <v>0.2649508177809017</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1614021675866943</v>
+        <v>-0.160254707647266</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.222759468661246</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.857332217870363</v>
+        <v>-1.85684505895232</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3908141087774686</v>
+        <v>0.3872316412573883</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1678162955059946</v>
+        <v>-0.1667774428859361</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.238833544348807</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.69208382042061</v>
+        <v>-1.690516884385355</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4637399886864508</v>
+        <v>0.4600253035601812</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1742508856738718</v>
+        <v>-0.1731648124801743</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2402932380431298</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.401240502234472</v>
+        <v>-1.398977849747603</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5695864785174368</v>
+        <v>0.5650533034480909</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1810475002396481</v>
+        <v>-0.1799692971415572</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2207469832187051</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.000684903255434</v>
+        <v>-0.9976588514947334</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5542854386392729</v>
+        <v>0.5497176351492583</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1573726786361645</v>
+        <v>-0.1561071672626387</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1760445117218505</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4161965128472431</v>
+        <v>-0.4138339101461708</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5294568610198759</v>
+        <v>0.5242153773459446</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1425076420546008</v>
+        <v>-0.1411114870940071</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.10292487467347</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2867116321328838</v>
+        <v>0.2877977053265812</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4600142854263321</v>
+        <v>0.4539039431974428</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05958044464887406</v>
+        <v>-0.05842039255647545</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.00108373976376544</v>
       </c>
       <c r="E13" t="n">
-        <v>1.012343891167229</v>
+        <v>1.011380591464993</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2434749008898752</v>
+        <v>0.2369191112496578</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03927582626441564</v>
+        <v>0.04027060634907767</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1286462834652532</v>
       </c>
       <c r="E14" t="n">
-        <v>1.767800664511979</v>
+        <v>1.764581795408919</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04188059962984782</v>
+        <v>-0.04850092405403852</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1727967202861104</v>
+        <v>0.1734845666421188</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2802098586708145</v>
       </c>
       <c r="E15" t="n">
-        <v>2.480562169191448</v>
+        <v>2.476096676944318</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3353375765669054</v>
+        <v>-0.3424458469186993</v>
       </c>
       <c r="G15" t="n">
-        <v>0.292324584319442</v>
+        <v>0.2932170531612195</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4434038022351464</v>
       </c>
       <c r="E16" t="n">
-        <v>3.162803443108897</v>
+        <v>3.156839484658289</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6537002580603039</v>
+        <v>-0.6613106405117927</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4239503593190908</v>
+        <v>0.4244855258203329</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6133981276646657</v>
       </c>
       <c r="E17" t="n">
-        <v>3.981389401351654</v>
+        <v>3.972266386524595</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.070581583365473</v>
+        <v>-1.077668604459129</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5884369315141339</v>
+        <v>0.5889673759580122</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7852349725431021</v>
       </c>
       <c r="E18" t="n">
-        <v>4.579406486107424</v>
+        <v>4.56886055799471</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.421332069308315</v>
+        <v>-1.428215254925763</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7160568278500724</v>
+        <v>0.71668328746035</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9535564636985217</v>
       </c>
       <c r="E19" t="n">
-        <v>5.20997113825345</v>
+        <v>5.196980758445355</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.828077498481868</v>
+        <v>-1.834528615850519</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9083153934213449</v>
+        <v>0.908682139876608</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.112210303244638</v>
       </c>
       <c r="E20" t="n">
-        <v>5.648914702572331</v>
+        <v>5.634866581914721</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.216044092528744</v>
+        <v>-2.221914396841635</v>
       </c>
       <c r="G20" t="n">
-        <v>1.086506950105553</v>
+        <v>1.086653333883834</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.254049980702332</v>
       </c>
       <c r="E21" t="n">
-        <v>6.00908962800396</v>
+        <v>5.993909787598136</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.646633550361321</v>
+        <v>-2.651213946004306</v>
       </c>
       <c r="G21" t="n">
-        <v>1.283295542707929</v>
+        <v>1.282823336971539</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.375505980416247</v>
       </c>
       <c r="E22" t="n">
-        <v>6.289093463511261</v>
+        <v>6.272977081728263</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.004761463925699</v>
+        <v>-3.008216435896954</v>
       </c>
       <c r="G22" t="n">
-        <v>1.417781310450981</v>
+        <v>1.417263458160073</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.474579518633022</v>
       </c>
       <c r="E23" t="n">
-        <v>6.543185796243709</v>
+        <v>6.525835383469612</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.285846650569333</v>
+        <v>-3.288535862238076</v>
       </c>
       <c r="G23" t="n">
-        <v>1.512519947342948</v>
+        <v>1.51160229419523</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.549814809651123</v>
       </c>
       <c r="E24" t="n">
-        <v>6.596172001924055</v>
+        <v>6.579270184599528</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.523174892650369</v>
+        <v>-3.524907100693361</v>
       </c>
       <c r="G24" t="n">
-        <v>1.626907064926112</v>
+        <v>1.625572296711249</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.60057752189789</v>
       </c>
       <c r="E25" t="n">
-        <v>6.630737461827818</v>
+        <v>6.613673520533797</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.676566204059363</v>
+        <v>-3.677712876989231</v>
       </c>
       <c r="G25" t="n">
-        <v>1.679729572617842</v>
+        <v>1.678377490192644</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.62606600598958</v>
       </c>
       <c r="E26" t="n">
-        <v>6.570199112403472</v>
+        <v>6.55348460335438</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.857531969444864</v>
+        <v>-3.857069207823202</v>
       </c>
       <c r="G26" t="n">
-        <v>1.72057064675823</v>
+        <v>1.718943110986806</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.629056207187153</v>
       </c>
       <c r="E27" t="n">
-        <v>6.438777959889593</v>
+        <v>6.423154246091562</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.99619754496453</v>
+        <v>-3.994002575299877</v>
       </c>
       <c r="G27" t="n">
-        <v>1.742616358571168</v>
+        <v>1.740686611128453</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.612427878900273</v>
       </c>
       <c r="E28" t="n">
-        <v>6.222540787024426</v>
+        <v>6.207694638672317</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.001705824879522</v>
+        <v>-3.998485381757341</v>
       </c>
       <c r="G28" t="n">
-        <v>1.733526398145657</v>
+        <v>1.731245644438892</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.581084310474581</v>
       </c>
       <c r="E29" t="n">
-        <v>6.084261633199039</v>
+        <v>6.069797971493406</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.945400799881915</v>
+        <v>-3.941817545352273</v>
       </c>
       <c r="G29" t="n">
-        <v>1.687187275214564</v>
+        <v>1.684769581844246</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.539244957130688</v>
       </c>
       <c r="E30" t="n">
-        <v>5.831426941744509</v>
+        <v>5.818120184093033</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.863643098683314</v>
+        <v>-3.860036233866853</v>
       </c>
       <c r="G30" t="n">
-        <v>1.659686013127199</v>
+        <v>1.656931479664922</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.489709419183043</v>
       </c>
       <c r="E31" t="n">
-        <v>5.60699542533385</v>
+        <v>5.59416716949525</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.732715401163962</v>
+        <v>-3.729124276538715</v>
       </c>
       <c r="G31" t="n">
-        <v>1.564942654177868</v>
+        <v>1.562553293151733</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.437316518796217</v>
       </c>
       <c r="E32" t="n">
-        <v>5.355786695631624</v>
+        <v>5.343838316481831</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.60609579397961</v>
+        <v>-3.602499947296999</v>
       </c>
       <c r="G32" t="n">
-        <v>1.455423977736887</v>
+        <v>1.453464323930868</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.384496823261411</v>
       </c>
       <c r="E33" t="n">
-        <v>5.002579952849993</v>
+        <v>4.991886066939876</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.391022608254645</v>
+        <v>-3.387980029293171</v>
       </c>
       <c r="G33" t="n">
-        <v>1.332445863789664</v>
+        <v>1.330887584859577</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.334202538745159</v>
       </c>
       <c r="E34" t="n">
-        <v>4.664272875070593</v>
+        <v>4.654095267432263</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.271160265158037</v>
+        <v>-3.268574938751301</v>
       </c>
       <c r="G34" t="n">
-        <v>1.231157733333965</v>
+        <v>1.229892221960439</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.286795069191927</v>
       </c>
       <c r="E35" t="n">
-        <v>4.289607529608269</v>
+        <v>4.280618306406521</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.111291078055329</v>
+        <v>-3.109312536019854</v>
       </c>
       <c r="G35" t="n">
-        <v>1.106235705771936</v>
+        <v>1.105267684012336</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.240265334033309</v>
       </c>
       <c r="E36" t="n">
-        <v>3.962315437639732</v>
+        <v>3.95416831466788</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.007191749448987</v>
+        <v>-3.005460328415556</v>
       </c>
       <c r="G36" t="n">
-        <v>0.996787860191414</v>
+        <v>0.9963125064167812</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.194087546996242</v>
       </c>
       <c r="E37" t="n">
-        <v>3.620200807605906</v>
+        <v>3.613141331846873</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.86267947990325</v>
+        <v>-2.861519427810851</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9136843726441015</v>
+        <v>0.9132971639402615</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.145249230839613</v>
       </c>
       <c r="E38" t="n">
-        <v>3.254324784916925</v>
+        <v>3.248415917135563</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.725095255519917</v>
+        <v>-2.72434838344686</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8266064868155049</v>
+        <v>0.8263971422723719</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.093298420001541</v>
       </c>
       <c r="E39" t="n">
-        <v>2.913431593721229</v>
+        <v>2.908698518223478</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.564410726512376</v>
+        <v>-2.564173049625059</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7453855261372681</v>
+        <v>0.7454107104432089</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.037590118873776</v>
       </c>
       <c r="E40" t="n">
-        <v>2.674555303834394</v>
+        <v>2.669935557713377</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.42117026441665</v>
+        <v>-2.421470115059257</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7063624440819815</v>
+        <v>0.7062333745140348</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9771030983239833</v>
       </c>
       <c r="E41" t="n">
-        <v>2.466772187669733</v>
+        <v>2.462270492982813</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.300590955610289</v>
+        <v>-2.300993117495781</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6136495697991283</v>
+        <v>0.6136889202771608</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9139280209360287</v>
       </c>
       <c r="E42" t="n">
-        <v>2.218165311575017</v>
+        <v>2.214042955496331</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.240315467379201</v>
+        <v>-2.240368984029325</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5599928319731091</v>
+        <v>0.5600400525467482</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8480456002020499</v>
       </c>
       <c r="E43" t="n">
-        <v>1.982540945192789</v>
+        <v>1.978583861121839</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.140634410446349</v>
+        <v>-2.140765841042978</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4936369078764361</v>
+        <v>0.4938793068211164</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.781826807852859</v>
       </c>
       <c r="E44" t="n">
-        <v>1.747624887415147</v>
+        <v>1.743829927313691</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.090649072220764</v>
+        <v>-2.09060814772361</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4524401054146332</v>
+        <v>0.4523582564203256</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7167405235659891</v>
       </c>
       <c r="E45" t="n">
-        <v>1.529897118442108</v>
+        <v>1.526150952933412</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.036864838845919</v>
+        <v>-2.0365272117444</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3633317349195586</v>
+        <v>0.3633679373593486</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6529368116320193</v>
       </c>
       <c r="E46" t="n">
-        <v>1.332346700585022</v>
+        <v>1.32868868014712</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.965209192367827</v>
+        <v>-1.964925081916432</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3125963765826736</v>
+        <v>0.3124531408426352</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5916687534221045</v>
       </c>
       <c r="E47" t="n">
-        <v>1.135246452196629</v>
+        <v>1.131977214481687</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.877124721311158</v>
+        <v>-1.877149118607539</v>
       </c>
       <c r="G47" t="n">
-        <v>0.300008945669632</v>
+        <v>0.2998011751456203</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5322832567774991</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9749719551701864</v>
+        <v>0.9716429047286355</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.822154464528414</v>
+        <v>-1.821982109434631</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2301870314678548</v>
+        <v>0.2301382368750944</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4759022613361449</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8450665830701194</v>
+        <v>0.8420114119556747</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.780102969683745</v>
+        <v>-1.779871588872914</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1937972834025042</v>
+        <v>0.1935533104387026</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4232043272106505</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7556748891332107</v>
+        <v>0.7524764822787277</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.700619726115424</v>
+        <v>-1.70065199350741</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1614055439052573</v>
+        <v>0.1611206464443019</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3745695161510472</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6485188153933025</v>
+        <v>0.6451268041868995</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.618340237578112</v>
+        <v>-1.618565322312458</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1304650500378497</v>
+        <v>0.1303296843934178</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3313662346076754</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4810904014605483</v>
+        <v>0.4781548557993225</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.563117350726399</v>
+        <v>-1.563628119931261</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07737968115286269</v>
+        <v>0.07720024297303441</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2934485091228206</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3938645578345494</v>
+        <v>0.3909526224601431</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.555626593728129</v>
+        <v>-1.555868992672809</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01357051999445411</v>
+        <v>0.01364607291227654</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2614012646125086</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2988756519022955</v>
+        <v>0.295925940068978</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.502437339581136</v>
+        <v>-1.502915054384451</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02059986110986253</v>
+        <v>-0.02040153470057864</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2351038702068161</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1922216902620822</v>
+        <v>0.1897174258400928</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.49401948532042</v>
+        <v>-1.49456330892683</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03222714035891071</v>
+        <v>-0.0322161222250616</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2135805824704715</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06719262939980464</v>
+        <v>0.06520779128784447</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.496798416079076</v>
+        <v>-1.497347748752411</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08722179443803543</v>
+        <v>-0.08703920821996455</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1964206377372876</v>
       </c>
       <c r="E57" t="n">
-        <v>0.007063524946997062</v>
+        <v>0.005146369657252825</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.502230356066685</v>
+        <v>-1.502712005917803</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08764048352430143</v>
+        <v>-0.08764520558166532</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1824725319521446</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1155084920669301</v>
+        <v>-0.1170793631499882</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.525982304607113</v>
+        <v>-1.526153872691334</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1532739328442975</v>
+        <v>-0.153025237823132</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1711414462837856</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.202268426033024</v>
+        <v>-0.2035606957316119</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.537785086988186</v>
+        <v>-1.538079428563869</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2010816156155633</v>
+        <v>-0.2004457118905578</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1616740935172206</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3182327107757309</v>
+        <v>-0.3192054545926947</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.522742973255476</v>
+        <v>-1.523349757626737</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2390201984962738</v>
+        <v>-0.2384755878803037</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1524929272179536</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4212034676721006</v>
+        <v>-0.4218047429764374</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.578258627663751</v>
+        <v>-1.578778840983341</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2501705499515678</v>
+        <v>-0.2496385314885682</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1427723134635702</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5282525081117604</v>
+        <v>-0.5284555565784081</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.601739057905754</v>
+        <v>-1.602267928330511</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2722965367396916</v>
+        <v>-0.2716747991867778</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1314670747672071</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6435478347279144</v>
+        <v>-0.6430189643031574</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.661390447555247</v>
+        <v>-1.661680067073566</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3147777388044758</v>
+        <v>-0.3141575752706834</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1183292925243841</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.748308251365203</v>
+        <v>-0.7475196677854313</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.750046287552947</v>
+        <v>-1.750094295136147</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3801845293710047</v>
+        <v>-0.379265302204165</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.103244455796636</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8500237280123354</v>
+        <v>-0.8489943195070048</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.83900748726018</v>
+        <v>-1.838792633650123</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4086239068546655</v>
+        <v>-0.4073473773472906</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.08603242053109464</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9120070269900352</v>
+        <v>-0.9109492861405212</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.876906719662858</v>
+        <v>-1.876595063876841</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4547709994529591</v>
+        <v>-0.4533716964541227</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.06673746455504112</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.014154571885965</v>
+        <v>-1.012725362523824</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.8964402969582</v>
+        <v>-1.896134150239107</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4932573409878822</v>
+        <v>-0.491706932153401</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.04555673360980169</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.053118628224202</v>
+        <v>-1.051439936831335</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.913642751934895</v>
+        <v>-1.913638029877531</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5144074359207995</v>
+        <v>-0.5128129545509219</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.02308417334803826</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.073805961535457</v>
+        <v>-1.072106020884453</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.003978070335024</v>
+        <v>-2.003572760411289</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5534494062055417</v>
+        <v>-0.5518155743576316</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.0001349472772749873</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.070168403346132</v>
+        <v>-1.068587301138785</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.030178405618634</v>
+        <v>-2.029783326819187</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5838358453422515</v>
+        <v>-0.5821359046912468</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.02342811678232097</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.048194309403213</v>
+        <v>-1.046965787479038</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.068006020151293</v>
+        <v>-2.067655013887243</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5753078097430444</v>
+        <v>-0.5736362014362231</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.04591132404744208</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.054194470293611</v>
+        <v>-1.053178440950812</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.117063474104871</v>
+        <v>-2.116629831836953</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5812686201554101</v>
+        <v>-0.5796694167281686</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.06736410581620166</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9235020886328941</v>
+        <v>-0.9232549676308499</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.064034769908251</v>
+        <v>-2.064163052466637</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5891166794942153</v>
+        <v>-0.5874891437227905</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.08781051249054497</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7798358543648558</v>
+        <v>-0.7805441629694411</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.067853340296526</v>
+        <v>-2.068153977948695</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5895117582936619</v>
+        <v>-0.5879393131914824</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1070785642294729</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6633993638857587</v>
+        <v>-0.6645971924370685</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.037214271090848</v>
+        <v>-2.038198820051222</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.580535127244884</v>
+        <v>-0.5791704526667163</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.125192239204985</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4969405457317257</v>
+        <v>-0.4989112176715942</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.994844824383676</v>
+        <v>-1.996352734701882</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5602428727330755</v>
+        <v>-0.5591426333672863</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1417394751795816</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.3334361614683742</v>
+        <v>-0.3358145043606596</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.958987094781325</v>
+        <v>-1.960885361841614</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4924844975993235</v>
+        <v>-0.4918564639699246</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1561206458137905</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1337482256445625</v>
+        <v>-0.137080424124356</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.968941978713991</v>
+        <v>-1.970644280393678</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4421945866737665</v>
+        <v>-0.4419695019394205</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1671879045497889</v>
       </c>
       <c r="E79" t="n">
-        <v>0.09344412030485751</v>
+        <v>0.08942722350729815</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.907564677097992</v>
+        <v>-1.909580208582818</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4153308023305277</v>
+        <v>-0.415123031806516</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1741905753944273</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2800598273262671</v>
+        <v>0.2757391448382966</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.81204532672186</v>
+        <v>-1.814790416069409</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3611137136973255</v>
+        <v>-0.3613041700110029</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1764622837382983</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5192225886931787</v>
+        <v>0.5144784950615785</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.77662360041611</v>
+        <v>-1.779365541725415</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3039107107910159</v>
+        <v>-0.3041971822710927</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1740064587724343</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7783328943843341</v>
+        <v>0.7729119725305745</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.726979824339846</v>
+        <v>-1.729942915335695</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2562840402186997</v>
+        <v>-0.2567121734196935</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1669571854670764</v>
       </c>
       <c r="E83" t="n">
-        <v>1.001330479375488</v>
+        <v>0.9959016874261216</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.681085361810522</v>
+        <v>-1.683799757785205</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2104202710622403</v>
+        <v>-0.2109459934487547</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1555330091873271</v>
       </c>
       <c r="E84" t="n">
-        <v>1.221139101626886</v>
+        <v>1.215362451451713</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.634188249100928</v>
+        <v>-1.636736586058314</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1616697508373154</v>
+        <v>-0.1621466786310695</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.140226301506349</v>
       </c>
       <c r="E85" t="n">
-        <v>1.484038071343012</v>
+        <v>1.477688478207685</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.572382027274375</v>
+        <v>-1.574455010457128</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1124942454496393</v>
+        <v>-0.1132985692206239</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.121300455508831</v>
       </c>
       <c r="E86" t="n">
-        <v>1.671355790892522</v>
+        <v>1.665394980480156</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.498427525869623</v>
+        <v>-1.500387179675642</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07047423098739612</v>
+        <v>-0.07128642485398727</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09957496939689885</v>
       </c>
       <c r="E87" t="n">
-        <v>1.842489445836818</v>
+        <v>1.836963064701931</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.414245835224219</v>
+        <v>-1.415810410230792</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01647278297381212</v>
+        <v>-0.0175588561675096</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.07667584509933655</v>
       </c>
       <c r="E88" t="n">
-        <v>1.97554757823685</v>
+        <v>1.970115638249242</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.310418024916301</v>
+        <v>-1.311611918419808</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02346795222919283</v>
+        <v>0.02239447118846576</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.05421587681536907</v>
       </c>
       <c r="E89" t="n">
-        <v>2.060373042702865</v>
+        <v>2.055315719266126</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.15991031653753</v>
+        <v>-1.160901161574388</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05996945565215578</v>
+        <v>0.0588786604010944</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.03491419380612485</v>
       </c>
       <c r="E90" t="n">
-        <v>2.128504460368366</v>
+        <v>2.124004339700567</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.023229579129824</v>
+        <v>-1.023593177546844</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07958802998004755</v>
+        <v>0.07852399305404829</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02090637069588257</v>
       </c>
       <c r="E91" t="n">
-        <v>2.16168006138802</v>
+        <v>2.157408173492811</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8423385796525849</v>
+        <v>-0.8423661249872075</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05735658391079664</v>
+        <v>0.05650818760441557</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01415185803145333</v>
       </c>
       <c r="E92" t="n">
-        <v>2.221579359049118</v>
+        <v>2.2170556280945</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6393452036740416</v>
+        <v>-0.6392161341060949</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08248579918236212</v>
+        <v>0.08147213086824448</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01609782457631075</v>
       </c>
       <c r="E93" t="n">
-        <v>2.209811992098274</v>
+        <v>2.205466125304363</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4964525998041225</v>
+        <v>-0.495983542105975</v>
       </c>
       <c r="G93" t="n">
-        <v>0.07051223572662779</v>
+        <v>0.0694025522461108</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02712982991551148</v>
       </c>
       <c r="E94" t="n">
-        <v>2.192212884303011</v>
+        <v>2.187700171482242</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2955526692569093</v>
+        <v>-0.295148146342735</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04302828784959647</v>
+        <v>0.04188082791016828</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04641611099790693</v>
       </c>
       <c r="E95" t="n">
-        <v>2.084819133675786</v>
+        <v>2.081101300511274</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1103693196358834</v>
+        <v>-0.110320525043123</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01908116093812781</v>
+        <v>0.01810054702555748</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07171469831730856</v>
       </c>
       <c r="E96" t="n">
-        <v>1.996565455563578</v>
+        <v>1.993036504693622</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.01085353471076867</v>
+        <v>-0.01063002399554397</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02985509354311057</v>
+        <v>-0.03040600023556581</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.09978268727041073</v>
       </c>
       <c r="E97" t="n">
-        <v>1.787337389845563</v>
+        <v>1.784697759779142</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06537463731470235</v>
+        <v>0.06553990932243892</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05837159796371513</v>
+        <v>-0.05907833254917914</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1275476622390548</v>
       </c>
       <c r="E98" t="n">
-        <v>1.604343500822266</v>
+        <v>1.602070617211108</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1057860042349762</v>
+        <v>0.1059371100706211</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.076153291977049</v>
+        <v>-0.07667586632532084</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1527371475284614</v>
       </c>
       <c r="E99" t="n">
-        <v>1.440802914119125</v>
+        <v>1.438951867632475</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1149058710237924</v>
+        <v>0.1153040978614815</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1070261030222407</v>
+        <v>-0.1074967347395096</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.17430707407994</v>
       </c>
       <c r="E100" t="n">
-        <v>1.255350407228357</v>
+        <v>1.254187207097715</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1315054766770294</v>
+        <v>0.1318281505968961</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1029320792877376</v>
+        <v>-0.1036089075098969</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.191614141157693</v>
       </c>
       <c r="E101" t="n">
-        <v>1.112058002501627</v>
+        <v>1.111308769399888</v>
       </c>
       <c r="F101" t="n">
-        <v>0.09551552946848921</v>
+        <v>0.09618763563328461</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1386812015707188</v>
+        <v>-0.139189609746899</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2054124411321442</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9506942842432446</v>
+        <v>0.9503558701321649</v>
       </c>
       <c r="F102" t="n">
-        <v>0.08832226208414506</v>
+        <v>0.0893075980540793</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.09542243406001202</v>
+        <v>-0.09632119897827471</v>
       </c>
     </row>
   </sheetData>
